--- a/diagrams/RTM Sprint 3.xlsx
+++ b/diagrams/RTM Sprint 3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Libraries\Documents\UNS\2020\COMS3009 - Software Design\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199277C6-3A84-414C-BBC8-6D6F45E768EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7D6BB9-69A6-4795-98AB-3ACBC2FEB01C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29625" yWindow="0" windowWidth="28800" windowHeight="16200" xr2:uid="{A5F56015-4C5B-49FE-A185-6D86FF6FF1EF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <t xml:space="preserve">Functional Requirement  / Use Case </t>
   </si>
@@ -200,6 +200,36 @@
   </si>
   <si>
     <t>Authentication Module</t>
+  </si>
+  <si>
+    <t>BR_5</t>
+  </si>
+  <si>
+    <t>Moodle Courses Module</t>
+  </si>
+  <si>
+    <t>FR_18</t>
+  </si>
+  <si>
+    <t>List Moodle courses</t>
+  </si>
+  <si>
+    <t>FR_19</t>
+  </si>
+  <si>
+    <t>List Moodle course catergories</t>
+  </si>
+  <si>
+    <t>Add courses based on Moodle course name and ID</t>
+  </si>
+  <si>
+    <t>FR_20</t>
+  </si>
+  <si>
+    <t>Add enrollments for multiple course codes at once</t>
+  </si>
+  <si>
+    <t>FR_21</t>
   </si>
 </sst>
 </file>
@@ -801,10 +831,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,8 +1279,91 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="1"/>
+    <row r="21" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
